--- a/2022/SAMSUNG/MAY/08.05.2022/SAMSUNG Bank Statement May-2022.xlsx
+++ b/2022/SAMSUNG/MAY/08.05.2022/SAMSUNG Bank Statement May-2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="March 2021" sheetId="7" state="hidden" r:id="rId1"/>
@@ -3099,159 +3099,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="36" fillId="35" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="36" fillId="35" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="36" fillId="35" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="36" fillId="35" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="42" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="42" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="43" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="43" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="43" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3274,6 +3121,159 @@
     </xf>
     <xf numFmtId="1" fontId="32" fillId="48" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="36" fillId="35" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="36" fillId="35" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="36" fillId="35" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="36" fillId="35" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="42" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="42" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="43" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="43" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="43" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -3732,33 +3732,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="374"/>
-      <c r="B1" s="374"/>
-      <c r="C1" s="374"/>
-      <c r="D1" s="374"/>
-      <c r="E1" s="374"/>
-      <c r="F1" s="374"/>
+      <c r="A1" s="383"/>
+      <c r="B1" s="383"/>
+      <c r="C1" s="383"/>
+      <c r="D1" s="383"/>
+      <c r="E1" s="383"/>
+      <c r="F1" s="383"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="375"/>
-      <c r="B2" s="372" t="s">
+      <c r="A2" s="384"/>
+      <c r="B2" s="381" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="372"/>
-      <c r="D2" s="372"/>
-      <c r="E2" s="372"/>
+      <c r="C2" s="381"/>
+      <c r="D2" s="381"/>
+      <c r="E2" s="381"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="375"/>
-      <c r="B3" s="373" t="s">
+      <c r="A3" s="384"/>
+      <c r="B3" s="382" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="373"/>
-      <c r="D3" s="373"/>
-      <c r="E3" s="373"/>
+      <c r="C3" s="382"/>
+      <c r="D3" s="382"/>
+      <c r="E3" s="382"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="375"/>
+      <c r="A4" s="384"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -3776,7 +3776,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="375"/>
+      <c r="A5" s="384"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -3794,7 +3794,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="375"/>
+      <c r="A6" s="384"/>
       <c r="B6" s="26"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -3806,7 +3806,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="375"/>
+      <c r="A7" s="384"/>
       <c r="B7" s="26" t="s">
         <v>40</v>
       </c>
@@ -3825,7 +3825,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="375"/>
+      <c r="A8" s="384"/>
       <c r="B8" s="26" t="s">
         <v>41</v>
       </c>
@@ -3844,7 +3844,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="375"/>
+      <c r="A9" s="384"/>
       <c r="B9" s="26" t="s">
         <v>43</v>
       </c>
@@ -3863,7 +3863,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="375"/>
+      <c r="A10" s="384"/>
       <c r="B10" s="26" t="s">
         <v>44</v>
       </c>
@@ -3882,7 +3882,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="375"/>
+      <c r="A11" s="384"/>
       <c r="B11" s="26" t="s">
         <v>45</v>
       </c>
@@ -3901,7 +3901,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="375"/>
+      <c r="A12" s="384"/>
       <c r="B12" s="26" t="s">
         <v>46</v>
       </c>
@@ -3920,7 +3920,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="375"/>
+      <c r="A13" s="384"/>
       <c r="B13" s="26" t="s">
         <v>47</v>
       </c>
@@ -3939,7 +3939,7 @@
       <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="375"/>
+      <c r="A14" s="384"/>
       <c r="B14" s="26" t="s">
         <v>48</v>
       </c>
@@ -3958,7 +3958,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="375"/>
+      <c r="A15" s="384"/>
       <c r="B15" s="26" t="s">
         <v>49</v>
       </c>
@@ -3977,7 +3977,7 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="375"/>
+      <c r="A16" s="384"/>
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -3990,7 +3990,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="375"/>
+      <c r="A17" s="384"/>
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -4003,7 +4003,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="375"/>
+      <c r="A18" s="384"/>
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -4016,7 +4016,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="375"/>
+      <c r="A19" s="384"/>
       <c r="B19" s="26"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -4029,7 +4029,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="375"/>
+      <c r="A20" s="384"/>
       <c r="B20" s="26"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -4042,7 +4042,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="375"/>
+      <c r="A21" s="384"/>
       <c r="B21" s="26"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -4055,7 +4055,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="375"/>
+      <c r="A22" s="384"/>
       <c r="B22" s="26"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
@@ -4068,7 +4068,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="375"/>
+      <c r="A23" s="384"/>
       <c r="B23" s="26"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -4081,7 +4081,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="375"/>
+      <c r="A24" s="384"/>
       <c r="B24" s="26"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
@@ -4094,7 +4094,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="375"/>
+      <c r="A25" s="384"/>
       <c r="B25" s="26"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
@@ -4107,7 +4107,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="375"/>
+      <c r="A26" s="384"/>
       <c r="B26" s="26"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
@@ -4120,7 +4120,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="375"/>
+      <c r="A27" s="384"/>
       <c r="B27" s="26"/>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
@@ -4133,7 +4133,7 @@
       <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="375"/>
+      <c r="A28" s="384"/>
       <c r="B28" s="26"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
@@ -4146,7 +4146,7 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="375"/>
+      <c r="A29" s="384"/>
       <c r="B29" s="26"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
@@ -4159,7 +4159,7 @@
       <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="375"/>
+      <c r="A30" s="384"/>
       <c r="B30" s="26"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
@@ -4172,7 +4172,7 @@
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="375"/>
+      <c r="A31" s="384"/>
       <c r="B31" s="26"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
@@ -4185,7 +4185,7 @@
       <c r="H31" s="21"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="375"/>
+      <c r="A32" s="384"/>
       <c r="B32" s="26"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
@@ -4198,7 +4198,7 @@
       <c r="H32" s="21"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="375"/>
+      <c r="A33" s="384"/>
       <c r="B33" s="26"/>
       <c r="C33" s="25"/>
       <c r="D33" s="28"/>
@@ -4211,7 +4211,7 @@
       <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="375"/>
+      <c r="A34" s="384"/>
       <c r="B34" s="26"/>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
@@ -4224,7 +4224,7 @@
       <c r="H34" s="21"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="375"/>
+      <c r="A35" s="384"/>
       <c r="B35" s="26"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
@@ -4237,7 +4237,7 @@
       <c r="H35" s="21"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="375"/>
+      <c r="A36" s="384"/>
       <c r="B36" s="26"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
@@ -4250,7 +4250,7 @@
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="375"/>
+      <c r="A37" s="384"/>
       <c r="B37" s="26"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -4263,7 +4263,7 @@
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="375"/>
+      <c r="A38" s="384"/>
       <c r="B38" s="26"/>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
@@ -4276,7 +4276,7 @@
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="375"/>
+      <c r="A39" s="384"/>
       <c r="B39" s="26"/>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
@@ -4289,7 +4289,7 @@
       <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="375"/>
+      <c r="A40" s="384"/>
       <c r="B40" s="26"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
@@ -4302,7 +4302,7 @@
       <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="375"/>
+      <c r="A41" s="384"/>
       <c r="B41" s="26"/>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
@@ -4315,7 +4315,7 @@
       <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="375"/>
+      <c r="A42" s="384"/>
       <c r="B42" s="26"/>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
@@ -4328,7 +4328,7 @@
       <c r="H42" s="21"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="375"/>
+      <c r="A43" s="384"/>
       <c r="B43" s="26"/>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
@@ -4341,7 +4341,7 @@
       <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="375"/>
+      <c r="A44" s="384"/>
       <c r="B44" s="26"/>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
@@ -4354,7 +4354,7 @@
       <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="375"/>
+      <c r="A45" s="384"/>
       <c r="B45" s="26"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
@@ -4367,7 +4367,7 @@
       <c r="H45" s="21"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="375"/>
+      <c r="A46" s="384"/>
       <c r="B46" s="26"/>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
@@ -4380,7 +4380,7 @@
       <c r="H46" s="21"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="375"/>
+      <c r="A47" s="384"/>
       <c r="B47" s="26"/>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
@@ -4393,7 +4393,7 @@
       <c r="H47" s="21"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="375"/>
+      <c r="A48" s="384"/>
       <c r="B48" s="26"/>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
@@ -4406,7 +4406,7 @@
       <c r="H48" s="21"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="375"/>
+      <c r="A49" s="384"/>
       <c r="B49" s="26"/>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
@@ -4419,7 +4419,7 @@
       <c r="H49" s="21"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="375"/>
+      <c r="A50" s="384"/>
       <c r="B50" s="26"/>
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
@@ -4432,7 +4432,7 @@
       <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="375"/>
+      <c r="A51" s="384"/>
       <c r="B51" s="26"/>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
@@ -4445,7 +4445,7 @@
       <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="375"/>
+      <c r="A52" s="384"/>
       <c r="B52" s="26"/>
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
@@ -4458,7 +4458,7 @@
       <c r="H52" s="21"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="375"/>
+      <c r="A53" s="384"/>
       <c r="B53" s="26"/>
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
@@ -4471,7 +4471,7 @@
       <c r="H53" s="21"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="375"/>
+      <c r="A54" s="384"/>
       <c r="B54" s="26"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -4484,7 +4484,7 @@
       <c r="H54" s="21"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="375"/>
+      <c r="A55" s="384"/>
       <c r="B55" s="26"/>
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
@@ -4496,7 +4496,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="375"/>
+      <c r="A56" s="384"/>
       <c r="B56" s="26"/>
       <c r="C56" s="25"/>
       <c r="D56" s="25"/>
@@ -4508,7 +4508,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="375"/>
+      <c r="A57" s="384"/>
       <c r="B57" s="26"/>
       <c r="C57" s="25"/>
       <c r="D57" s="25"/>
@@ -4520,7 +4520,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="375"/>
+      <c r="A58" s="384"/>
       <c r="B58" s="26"/>
       <c r="C58" s="25"/>
       <c r="D58" s="25"/>
@@ -4532,7 +4532,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="375"/>
+      <c r="A59" s="384"/>
       <c r="B59" s="26"/>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
@@ -4544,7 +4544,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="375"/>
+      <c r="A60" s="384"/>
       <c r="B60" s="26"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
@@ -4556,7 +4556,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="375"/>
+      <c r="A61" s="384"/>
       <c r="B61" s="26"/>
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
@@ -4568,7 +4568,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="375"/>
+      <c r="A62" s="384"/>
       <c r="B62" s="26"/>
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
@@ -4580,7 +4580,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="375"/>
+      <c r="A63" s="384"/>
       <c r="B63" s="26"/>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
@@ -4592,7 +4592,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="375"/>
+      <c r="A64" s="384"/>
       <c r="B64" s="26"/>
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
@@ -4604,7 +4604,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="375"/>
+      <c r="A65" s="384"/>
       <c r="B65" s="26"/>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
@@ -4616,7 +4616,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="375"/>
+      <c r="A66" s="384"/>
       <c r="B66" s="26"/>
       <c r="C66" s="25"/>
       <c r="D66" s="25"/>
@@ -4628,7 +4628,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="375"/>
+      <c r="A67" s="384"/>
       <c r="B67" s="26"/>
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
@@ -4640,7 +4640,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="375"/>
+      <c r="A68" s="384"/>
       <c r="B68" s="26"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
@@ -4652,7 +4652,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="375"/>
+      <c r="A69" s="384"/>
       <c r="B69" s="26"/>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
@@ -4664,7 +4664,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="375"/>
+      <c r="A70" s="384"/>
       <c r="B70" s="26"/>
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
@@ -4676,7 +4676,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="375"/>
+      <c r="A71" s="384"/>
       <c r="B71" s="26"/>
       <c r="C71" s="25"/>
       <c r="D71" s="25"/>
@@ -4688,7 +4688,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="375"/>
+      <c r="A72" s="384"/>
       <c r="B72" s="26"/>
       <c r="C72" s="25"/>
       <c r="D72" s="25"/>
@@ -4700,7 +4700,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="375"/>
+      <c r="A73" s="384"/>
       <c r="B73" s="26"/>
       <c r="C73" s="25"/>
       <c r="D73" s="25"/>
@@ -4712,7 +4712,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="375"/>
+      <c r="A74" s="384"/>
       <c r="B74" s="26"/>
       <c r="C74" s="25"/>
       <c r="D74" s="25"/>
@@ -4724,7 +4724,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="375"/>
+      <c r="A75" s="384"/>
       <c r="B75" s="26"/>
       <c r="C75" s="25"/>
       <c r="D75" s="25"/>
@@ -4736,7 +4736,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="375"/>
+      <c r="A76" s="384"/>
       <c r="B76" s="26"/>
       <c r="C76" s="25"/>
       <c r="D76" s="25"/>
@@ -4748,7 +4748,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="375"/>
+      <c r="A77" s="384"/>
       <c r="B77" s="26"/>
       <c r="C77" s="25"/>
       <c r="D77" s="25"/>
@@ -4760,7 +4760,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="375"/>
+      <c r="A78" s="384"/>
       <c r="B78" s="26"/>
       <c r="C78" s="25"/>
       <c r="D78" s="25"/>
@@ -4772,7 +4772,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="375"/>
+      <c r="A79" s="384"/>
       <c r="B79" s="26"/>
       <c r="C79" s="25"/>
       <c r="D79" s="25"/>
@@ -4784,7 +4784,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="375"/>
+      <c r="A80" s="384"/>
       <c r="B80" s="26"/>
       <c r="C80" s="25"/>
       <c r="D80" s="25"/>
@@ -4796,7 +4796,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="375"/>
+      <c r="A81" s="384"/>
       <c r="B81" s="26"/>
       <c r="C81" s="25"/>
       <c r="D81" s="25"/>
@@ -4808,7 +4808,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="375"/>
+      <c r="A82" s="384"/>
       <c r="B82" s="26"/>
       <c r="C82" s="25"/>
       <c r="D82" s="25"/>
@@ -4820,7 +4820,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="375"/>
+      <c r="A83" s="384"/>
       <c r="B83" s="31"/>
       <c r="C83" s="27">
         <f>SUM(C5:C72)</f>
@@ -4877,33 +4877,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A1" s="374"/>
-      <c r="B1" s="374"/>
-      <c r="C1" s="374"/>
-      <c r="D1" s="374"/>
-      <c r="E1" s="374"/>
-      <c r="F1" s="374"/>
+      <c r="A1" s="383"/>
+      <c r="B1" s="383"/>
+      <c r="C1" s="383"/>
+      <c r="D1" s="383"/>
+      <c r="E1" s="383"/>
+      <c r="F1" s="383"/>
     </row>
     <row r="2" spans="1:9" ht="20.25">
-      <c r="A2" s="375"/>
-      <c r="B2" s="372" t="s">
+      <c r="A2" s="384"/>
+      <c r="B2" s="381" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="372"/>
-      <c r="D2" s="372"/>
-      <c r="E2" s="372"/>
+      <c r="C2" s="381"/>
+      <c r="D2" s="381"/>
+      <c r="E2" s="381"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A3" s="375"/>
-      <c r="B3" s="373" t="s">
+      <c r="A3" s="384"/>
+      <c r="B3" s="382" t="s">
         <v>190</v>
       </c>
-      <c r="C3" s="373"/>
-      <c r="D3" s="373"/>
-      <c r="E3" s="373"/>
+      <c r="C3" s="382"/>
+      <c r="D3" s="382"/>
+      <c r="E3" s="382"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A4" s="375"/>
+      <c r="A4" s="384"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -4921,7 +4921,7 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="375"/>
+      <c r="A5" s="384"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -4939,7 +4939,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="375"/>
+      <c r="A6" s="384"/>
       <c r="B6" s="26"/>
       <c r="C6" s="242"/>
       <c r="D6" s="242"/>
@@ -4951,7 +4951,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="375"/>
+      <c r="A7" s="384"/>
       <c r="B7" s="26" t="s">
         <v>191</v>
       </c>
@@ -4971,7 +4971,7 @@
       <c r="I7" s="21"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="375"/>
+      <c r="A8" s="384"/>
       <c r="B8" s="26" t="s">
         <v>195</v>
       </c>
@@ -4987,7 +4987,7 @@
       <c r="I8" s="21"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="375"/>
+      <c r="A9" s="384"/>
       <c r="B9" s="26" t="s">
         <v>196</v>
       </c>
@@ -5007,7 +5007,7 @@
       <c r="I9" s="21"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="375"/>
+      <c r="A10" s="384"/>
       <c r="B10" s="26" t="s">
         <v>197</v>
       </c>
@@ -5027,7 +5027,7 @@
       <c r="I10" s="21"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="375"/>
+      <c r="A11" s="384"/>
       <c r="B11" s="26" t="s">
         <v>204</v>
       </c>
@@ -5047,7 +5047,7 @@
       <c r="I11" s="21"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="375"/>
+      <c r="A12" s="384"/>
       <c r="B12" s="26"/>
       <c r="C12" s="242"/>
       <c r="D12" s="242"/>
@@ -5061,7 +5061,7 @@
       <c r="I12" s="21"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="375"/>
+      <c r="A13" s="384"/>
       <c r="B13" s="26"/>
       <c r="C13" s="242"/>
       <c r="D13" s="242"/>
@@ -5075,7 +5075,7 @@
       <c r="I13" s="21"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="375"/>
+      <c r="A14" s="384"/>
       <c r="B14" s="26"/>
       <c r="C14" s="242"/>
       <c r="D14" s="242"/>
@@ -5089,7 +5089,7 @@
       <c r="I14" s="21"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="375"/>
+      <c r="A15" s="384"/>
       <c r="B15" s="26"/>
       <c r="C15" s="242"/>
       <c r="D15" s="242"/>
@@ -5103,7 +5103,7 @@
       <c r="I15" s="21"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="375"/>
+      <c r="A16" s="384"/>
       <c r="B16" s="26"/>
       <c r="C16" s="242"/>
       <c r="D16" s="242"/>
@@ -5117,7 +5117,7 @@
       <c r="I16" s="21"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="375"/>
+      <c r="A17" s="384"/>
       <c r="B17" s="26"/>
       <c r="C17" s="242"/>
       <c r="D17" s="242"/>
@@ -5131,7 +5131,7 @@
       <c r="I17" s="21"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="375"/>
+      <c r="A18" s="384"/>
       <c r="B18" s="26"/>
       <c r="C18" s="242"/>
       <c r="D18" s="242"/>
@@ -5145,7 +5145,7 @@
       <c r="I18" s="21"/>
     </row>
     <row r="19" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A19" s="375"/>
+      <c r="A19" s="384"/>
       <c r="B19" s="26"/>
       <c r="C19" s="242"/>
       <c r="D19" s="244"/>
@@ -5159,7 +5159,7 @@
       <c r="I19" s="21"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="375"/>
+      <c r="A20" s="384"/>
       <c r="B20" s="26"/>
       <c r="C20" s="242"/>
       <c r="D20" s="242"/>
@@ -5173,7 +5173,7 @@
       <c r="I20" s="21"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="375"/>
+      <c r="A21" s="384"/>
       <c r="B21" s="26"/>
       <c r="C21" s="242"/>
       <c r="D21" s="242"/>
@@ -5187,7 +5187,7 @@
       <c r="I21" s="21"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="375"/>
+      <c r="A22" s="384"/>
       <c r="B22" s="26"/>
       <c r="C22" s="242"/>
       <c r="D22" s="242"/>
@@ -5201,7 +5201,7 @@
       <c r="I22" s="21"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="375"/>
+      <c r="A23" s="384"/>
       <c r="B23" s="26"/>
       <c r="C23" s="242"/>
       <c r="D23" s="242"/>
@@ -5215,7 +5215,7 @@
       <c r="I23" s="21"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="375"/>
+      <c r="A24" s="384"/>
       <c r="B24" s="26"/>
       <c r="C24" s="242"/>
       <c r="D24" s="242"/>
@@ -5229,7 +5229,7 @@
       <c r="I24" s="21"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="375"/>
+      <c r="A25" s="384"/>
       <c r="B25" s="26"/>
       <c r="C25" s="242"/>
       <c r="D25" s="242"/>
@@ -5243,7 +5243,7 @@
       <c r="I25" s="21"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="375"/>
+      <c r="A26" s="384"/>
       <c r="B26" s="26"/>
       <c r="C26" s="242"/>
       <c r="D26" s="242"/>
@@ -5257,7 +5257,7 @@
       <c r="I26" s="21"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="375"/>
+      <c r="A27" s="384"/>
       <c r="B27" s="26"/>
       <c r="C27" s="242"/>
       <c r="D27" s="242"/>
@@ -5271,7 +5271,7 @@
       <c r="I27" s="21"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="375"/>
+      <c r="A28" s="384"/>
       <c r="B28" s="26"/>
       <c r="C28" s="242"/>
       <c r="D28" s="242"/>
@@ -5285,7 +5285,7 @@
       <c r="I28" s="21"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="375"/>
+      <c r="A29" s="384"/>
       <c r="B29" s="26"/>
       <c r="C29" s="242"/>
       <c r="D29" s="242"/>
@@ -5299,7 +5299,7 @@
       <c r="I29" s="21"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="375"/>
+      <c r="A30" s="384"/>
       <c r="B30" s="26"/>
       <c r="C30" s="242"/>
       <c r="D30" s="242"/>
@@ -5313,7 +5313,7 @@
       <c r="I30" s="21"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="375"/>
+      <c r="A31" s="384"/>
       <c r="B31" s="26"/>
       <c r="C31" s="242"/>
       <c r="D31" s="242"/>
@@ -5327,7 +5327,7 @@
       <c r="I31" s="21"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="375"/>
+      <c r="A32" s="384"/>
       <c r="B32" s="26"/>
       <c r="C32" s="242"/>
       <c r="D32" s="242"/>
@@ -5341,7 +5341,7 @@
       <c r="I32" s="21"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="375"/>
+      <c r="A33" s="384"/>
       <c r="B33" s="26"/>
       <c r="C33" s="242"/>
       <c r="D33" s="244"/>
@@ -5355,7 +5355,7 @@
       <c r="I33" s="21"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="375"/>
+      <c r="A34" s="384"/>
       <c r="B34" s="26"/>
       <c r="C34" s="242"/>
       <c r="D34" s="242"/>
@@ -5369,7 +5369,7 @@
       <c r="I34" s="21"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="375"/>
+      <c r="A35" s="384"/>
       <c r="B35" s="26"/>
       <c r="C35" s="242"/>
       <c r="D35" s="242"/>
@@ -5383,7 +5383,7 @@
       <c r="I35" s="21"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="375"/>
+      <c r="A36" s="384"/>
       <c r="B36" s="26"/>
       <c r="C36" s="242"/>
       <c r="D36" s="242"/>
@@ -5397,7 +5397,7 @@
       <c r="I36" s="21"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="375"/>
+      <c r="A37" s="384"/>
       <c r="B37" s="26"/>
       <c r="C37" s="242"/>
       <c r="D37" s="242"/>
@@ -5411,7 +5411,7 @@
       <c r="I37" s="21"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="375"/>
+      <c r="A38" s="384"/>
       <c r="B38" s="26"/>
       <c r="C38" s="242"/>
       <c r="D38" s="242"/>
@@ -5425,7 +5425,7 @@
       <c r="I38" s="21"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="375"/>
+      <c r="A39" s="384"/>
       <c r="B39" s="26"/>
       <c r="C39" s="242"/>
       <c r="D39" s="242"/>
@@ -5439,7 +5439,7 @@
       <c r="I39" s="21"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="375"/>
+      <c r="A40" s="384"/>
       <c r="B40" s="26"/>
       <c r="C40" s="242"/>
       <c r="D40" s="242"/>
@@ -5453,7 +5453,7 @@
       <c r="I40" s="21"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="375"/>
+      <c r="A41" s="384"/>
       <c r="B41" s="26"/>
       <c r="C41" s="242"/>
       <c r="D41" s="242"/>
@@ -5467,7 +5467,7 @@
       <c r="I41" s="21"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="375"/>
+      <c r="A42" s="384"/>
       <c r="B42" s="26"/>
       <c r="C42" s="242"/>
       <c r="D42" s="242"/>
@@ -5481,7 +5481,7 @@
       <c r="I42" s="21"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="375"/>
+      <c r="A43" s="384"/>
       <c r="B43" s="26"/>
       <c r="C43" s="242"/>
       <c r="D43" s="242"/>
@@ -5495,7 +5495,7 @@
       <c r="I43" s="21"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="375"/>
+      <c r="A44" s="384"/>
       <c r="B44" s="26"/>
       <c r="C44" s="242"/>
       <c r="D44" s="242"/>
@@ -5509,7 +5509,7 @@
       <c r="I44" s="21"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="375"/>
+      <c r="A45" s="384"/>
       <c r="B45" s="26"/>
       <c r="C45" s="242"/>
       <c r="D45" s="242"/>
@@ -5523,7 +5523,7 @@
       <c r="I45" s="21"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="375"/>
+      <c r="A46" s="384"/>
       <c r="B46" s="26"/>
       <c r="C46" s="242"/>
       <c r="D46" s="242"/>
@@ -5537,7 +5537,7 @@
       <c r="I46" s="21"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="375"/>
+      <c r="A47" s="384"/>
       <c r="B47" s="26"/>
       <c r="C47" s="242"/>
       <c r="D47" s="242"/>
@@ -5551,7 +5551,7 @@
       <c r="I47" s="21"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="375"/>
+      <c r="A48" s="384"/>
       <c r="B48" s="26"/>
       <c r="C48" s="242"/>
       <c r="D48" s="242"/>
@@ -5565,7 +5565,7 @@
       <c r="I48" s="21"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="375"/>
+      <c r="A49" s="384"/>
       <c r="B49" s="26"/>
       <c r="C49" s="242"/>
       <c r="D49" s="242"/>
@@ -5579,7 +5579,7 @@
       <c r="I49" s="21"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="375"/>
+      <c r="A50" s="384"/>
       <c r="B50" s="26"/>
       <c r="C50" s="242"/>
       <c r="D50" s="242"/>
@@ -5593,7 +5593,7 @@
       <c r="I50" s="21"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="375"/>
+      <c r="A51" s="384"/>
       <c r="B51" s="26"/>
       <c r="C51" s="242"/>
       <c r="D51" s="242"/>
@@ -5607,7 +5607,7 @@
       <c r="I51" s="21"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="375"/>
+      <c r="A52" s="384"/>
       <c r="B52" s="26"/>
       <c r="C52" s="242"/>
       <c r="D52" s="242"/>
@@ -5621,7 +5621,7 @@
       <c r="I52" s="21"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="375"/>
+      <c r="A53" s="384"/>
       <c r="B53" s="26"/>
       <c r="C53" s="242"/>
       <c r="D53" s="242"/>
@@ -5635,7 +5635,7 @@
       <c r="I53" s="21"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="375"/>
+      <c r="A54" s="384"/>
       <c r="B54" s="26"/>
       <c r="C54" s="242"/>
       <c r="D54" s="242"/>
@@ -5649,7 +5649,7 @@
       <c r="I54" s="21"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="375"/>
+      <c r="A55" s="384"/>
       <c r="B55" s="26"/>
       <c r="C55" s="242"/>
       <c r="D55" s="242"/>
@@ -5663,7 +5663,7 @@
       <c r="I55" s="21"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="375"/>
+      <c r="A56" s="384"/>
       <c r="B56" s="26"/>
       <c r="C56" s="242"/>
       <c r="D56" s="242"/>
@@ -5677,7 +5677,7 @@
       <c r="I56" s="21"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="375"/>
+      <c r="A57" s="384"/>
       <c r="B57" s="26"/>
       <c r="C57" s="242"/>
       <c r="D57" s="242"/>
@@ -5688,7 +5688,7 @@
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="375"/>
+      <c r="A58" s="384"/>
       <c r="B58" s="26"/>
       <c r="C58" s="242"/>
       <c r="D58" s="242"/>
@@ -5699,7 +5699,7 @@
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="375"/>
+      <c r="A59" s="384"/>
       <c r="B59" s="26"/>
       <c r="C59" s="242"/>
       <c r="D59" s="242"/>
@@ -5710,7 +5710,7 @@
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="375"/>
+      <c r="A60" s="384"/>
       <c r="B60" s="26"/>
       <c r="C60" s="242"/>
       <c r="D60" s="242"/>
@@ -5721,7 +5721,7 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="375"/>
+      <c r="A61" s="384"/>
       <c r="B61" s="26"/>
       <c r="C61" s="242"/>
       <c r="D61" s="242"/>
@@ -5732,7 +5732,7 @@
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="375"/>
+      <c r="A62" s="384"/>
       <c r="B62" s="26"/>
       <c r="C62" s="242"/>
       <c r="D62" s="242"/>
@@ -5743,7 +5743,7 @@
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="375"/>
+      <c r="A63" s="384"/>
       <c r="B63" s="26"/>
       <c r="C63" s="242"/>
       <c r="D63" s="242"/>
@@ -5754,7 +5754,7 @@
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="375"/>
+      <c r="A64" s="384"/>
       <c r="B64" s="26"/>
       <c r="C64" s="242"/>
       <c r="D64" s="242"/>
@@ -5765,7 +5765,7 @@
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="375"/>
+      <c r="A65" s="384"/>
       <c r="B65" s="26"/>
       <c r="C65" s="242"/>
       <c r="D65" s="242"/>
@@ -5776,7 +5776,7 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="375"/>
+      <c r="A66" s="384"/>
       <c r="B66" s="26"/>
       <c r="C66" s="242"/>
       <c r="D66" s="242"/>
@@ -5787,7 +5787,7 @@
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="375"/>
+      <c r="A67" s="384"/>
       <c r="B67" s="26"/>
       <c r="C67" s="242"/>
       <c r="D67" s="242"/>
@@ -5798,7 +5798,7 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="375"/>
+      <c r="A68" s="384"/>
       <c r="B68" s="26"/>
       <c r="C68" s="242"/>
       <c r="D68" s="242"/>
@@ -5809,7 +5809,7 @@
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="375"/>
+      <c r="A69" s="384"/>
       <c r="B69" s="26"/>
       <c r="C69" s="242"/>
       <c r="D69" s="242"/>
@@ -5820,7 +5820,7 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="375"/>
+      <c r="A70" s="384"/>
       <c r="B70" s="26"/>
       <c r="C70" s="242"/>
       <c r="D70" s="242"/>
@@ -5831,7 +5831,7 @@
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="375"/>
+      <c r="A71" s="384"/>
       <c r="B71" s="26"/>
       <c r="C71" s="242"/>
       <c r="D71" s="242"/>
@@ -5842,7 +5842,7 @@
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="375"/>
+      <c r="A72" s="384"/>
       <c r="B72" s="26"/>
       <c r="C72" s="242"/>
       <c r="D72" s="242"/>
@@ -5853,7 +5853,7 @@
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="375"/>
+      <c r="A73" s="384"/>
       <c r="B73" s="26"/>
       <c r="C73" s="242"/>
       <c r="D73" s="242"/>
@@ -5864,7 +5864,7 @@
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="375"/>
+      <c r="A74" s="384"/>
       <c r="B74" s="26"/>
       <c r="C74" s="242"/>
       <c r="D74" s="242"/>
@@ -5875,7 +5875,7 @@
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="375"/>
+      <c r="A75" s="384"/>
       <c r="B75" s="26"/>
       <c r="C75" s="242"/>
       <c r="D75" s="242"/>
@@ -5886,7 +5886,7 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="375"/>
+      <c r="A76" s="384"/>
       <c r="B76" s="26"/>
       <c r="C76" s="242"/>
       <c r="D76" s="242"/>
@@ -5897,7 +5897,7 @@
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="375"/>
+      <c r="A77" s="384"/>
       <c r="B77" s="26"/>
       <c r="C77" s="242"/>
       <c r="D77" s="242"/>
@@ -5908,7 +5908,7 @@
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="375"/>
+      <c r="A78" s="384"/>
       <c r="B78" s="26"/>
       <c r="C78" s="242"/>
       <c r="D78" s="242"/>
@@ -5919,7 +5919,7 @@
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="375"/>
+      <c r="A79" s="384"/>
       <c r="B79" s="26"/>
       <c r="C79" s="242"/>
       <c r="D79" s="242"/>
@@ -5931,7 +5931,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="375"/>
+      <c r="A80" s="384"/>
       <c r="B80" s="26"/>
       <c r="C80" s="242"/>
       <c r="D80" s="242"/>
@@ -5943,7 +5943,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="375"/>
+      <c r="A81" s="384"/>
       <c r="B81" s="26"/>
       <c r="C81" s="242"/>
       <c r="D81" s="242"/>
@@ -5955,7 +5955,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="375"/>
+      <c r="A82" s="384"/>
       <c r="B82" s="26"/>
       <c r="C82" s="242"/>
       <c r="D82" s="242"/>
@@ -5967,7 +5967,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="375"/>
+      <c r="A83" s="384"/>
       <c r="B83" s="31"/>
       <c r="C83" s="243">
         <f>SUM(C5:C72)</f>
@@ -6023,67 +6023,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="380" t="s">
+      <c r="A1" s="385" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="380"/>
-      <c r="C1" s="380"/>
-      <c r="D1" s="380"/>
-      <c r="E1" s="380"/>
-      <c r="F1" s="380"/>
-      <c r="G1" s="380"/>
-      <c r="H1" s="380"/>
-      <c r="I1" s="380"/>
-      <c r="J1" s="380"/>
-      <c r="K1" s="380"/>
-      <c r="L1" s="380"/>
-      <c r="M1" s="380"/>
-      <c r="N1" s="380"/>
-      <c r="O1" s="380"/>
-      <c r="P1" s="380"/>
-      <c r="Q1" s="380"/>
+      <c r="B1" s="385"/>
+      <c r="C1" s="385"/>
+      <c r="D1" s="385"/>
+      <c r="E1" s="385"/>
+      <c r="F1" s="385"/>
+      <c r="G1" s="385"/>
+      <c r="H1" s="385"/>
+      <c r="I1" s="385"/>
+      <c r="J1" s="385"/>
+      <c r="K1" s="385"/>
+      <c r="L1" s="385"/>
+      <c r="M1" s="385"/>
+      <c r="N1" s="385"/>
+      <c r="O1" s="385"/>
+      <c r="P1" s="385"/>
+      <c r="Q1" s="385"/>
     </row>
     <row r="2" spans="1:24" s="62" customFormat="1" ht="18">
-      <c r="A2" s="381" t="s">
+      <c r="A2" s="386" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="381"/>
-      <c r="C2" s="381"/>
-      <c r="D2" s="381"/>
-      <c r="E2" s="381"/>
-      <c r="F2" s="381"/>
-      <c r="G2" s="381"/>
-      <c r="H2" s="381"/>
-      <c r="I2" s="381"/>
-      <c r="J2" s="381"/>
-      <c r="K2" s="381"/>
-      <c r="L2" s="381"/>
-      <c r="M2" s="381"/>
-      <c r="N2" s="381"/>
-      <c r="O2" s="381"/>
-      <c r="P2" s="381"/>
-      <c r="Q2" s="381"/>
+      <c r="B2" s="386"/>
+      <c r="C2" s="386"/>
+      <c r="D2" s="386"/>
+      <c r="E2" s="386"/>
+      <c r="F2" s="386"/>
+      <c r="G2" s="386"/>
+      <c r="H2" s="386"/>
+      <c r="I2" s="386"/>
+      <c r="J2" s="386"/>
+      <c r="K2" s="386"/>
+      <c r="L2" s="386"/>
+      <c r="M2" s="386"/>
+      <c r="N2" s="386"/>
+      <c r="O2" s="386"/>
+      <c r="P2" s="386"/>
+      <c r="Q2" s="386"/>
     </row>
     <row r="3" spans="1:24" s="63" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="382" t="s">
+      <c r="A3" s="387" t="s">
         <v>192</v>
       </c>
-      <c r="B3" s="383"/>
-      <c r="C3" s="383"/>
-      <c r="D3" s="383"/>
-      <c r="E3" s="383"/>
-      <c r="F3" s="383"/>
-      <c r="G3" s="383"/>
-      <c r="H3" s="383"/>
-      <c r="I3" s="383"/>
-      <c r="J3" s="383"/>
-      <c r="K3" s="383"/>
-      <c r="L3" s="383"/>
-      <c r="M3" s="383"/>
-      <c r="N3" s="383"/>
-      <c r="O3" s="383"/>
-      <c r="P3" s="383"/>
-      <c r="Q3" s="384"/>
+      <c r="B3" s="388"/>
+      <c r="C3" s="388"/>
+      <c r="D3" s="388"/>
+      <c r="E3" s="388"/>
+      <c r="F3" s="388"/>
+      <c r="G3" s="388"/>
+      <c r="H3" s="388"/>
+      <c r="I3" s="388"/>
+      <c r="J3" s="388"/>
+      <c r="K3" s="388"/>
+      <c r="L3" s="388"/>
+      <c r="M3" s="388"/>
+      <c r="N3" s="388"/>
+      <c r="O3" s="388"/>
+      <c r="P3" s="388"/>
+      <c r="Q3" s="389"/>
       <c r="S3" s="47"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -6092,52 +6092,52 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="64" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="385" t="s">
+      <c r="A4" s="390" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="387" t="s">
+      <c r="B4" s="392" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="376" t="s">
+      <c r="C4" s="394" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="376" t="s">
+      <c r="D4" s="394" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="376" t="s">
+      <c r="E4" s="394" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="389" t="s">
+      <c r="F4" s="396" t="s">
         <v>111</v>
       </c>
-      <c r="G4" s="376" t="s">
+      <c r="G4" s="394" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="376" t="s">
+      <c r="H4" s="394" t="s">
         <v>149</v>
       </c>
-      <c r="I4" s="376" t="s">
+      <c r="I4" s="394" t="s">
         <v>140</v>
       </c>
-      <c r="J4" s="376" t="s">
+      <c r="J4" s="394" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="376" t="s">
+      <c r="K4" s="394" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="376" t="s">
+      <c r="L4" s="394" t="s">
         <v>153</v>
       </c>
-      <c r="M4" s="376" t="s">
+      <c r="M4" s="394" t="s">
         <v>151</v>
       </c>
-      <c r="N4" s="376" t="s">
+      <c r="N4" s="394" t="s">
         <v>35</v>
       </c>
-      <c r="O4" s="378" t="s">
+      <c r="O4" s="400" t="s">
         <v>186</v>
       </c>
-      <c r="P4" s="391" t="s">
+      <c r="P4" s="398" t="s">
         <v>112</v>
       </c>
       <c r="Q4" s="121" t="s">
@@ -6150,22 +6150,22 @@
       <c r="W4" s="66"/>
     </row>
     <row r="5" spans="1:24" s="64" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="386"/>
-      <c r="B5" s="388"/>
-      <c r="C5" s="377"/>
-      <c r="D5" s="377"/>
-      <c r="E5" s="377"/>
-      <c r="F5" s="390"/>
-      <c r="G5" s="377"/>
-      <c r="H5" s="377"/>
-      <c r="I5" s="377"/>
-      <c r="J5" s="377"/>
-      <c r="K5" s="377"/>
-      <c r="L5" s="377"/>
-      <c r="M5" s="377"/>
-      <c r="N5" s="377"/>
-      <c r="O5" s="379"/>
-      <c r="P5" s="392"/>
+      <c r="A5" s="391"/>
+      <c r="B5" s="393"/>
+      <c r="C5" s="395"/>
+      <c r="D5" s="395"/>
+      <c r="E5" s="395"/>
+      <c r="F5" s="397"/>
+      <c r="G5" s="395"/>
+      <c r="H5" s="395"/>
+      <c r="I5" s="395"/>
+      <c r="J5" s="395"/>
+      <c r="K5" s="395"/>
+      <c r="L5" s="395"/>
+      <c r="M5" s="395"/>
+      <c r="N5" s="395"/>
+      <c r="O5" s="401"/>
+      <c r="P5" s="399"/>
       <c r="Q5" s="122" t="s">
         <v>36</v>
       </c>
@@ -9095,8 +9095,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
@@ -9114,6 +9112,8 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9125,8 +9125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72:D73"/>
+    <sheetView topLeftCell="A55" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G85" sqref="G85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -9153,15 +9153,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:97" ht="19.5">
-      <c r="A1" s="398" t="s">
+      <c r="A1" s="407" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="398"/>
-      <c r="C1" s="398"/>
-      <c r="D1" s="398"/>
-      <c r="E1" s="398"/>
-      <c r="F1" s="398"/>
-      <c r="G1" s="398"/>
+      <c r="B1" s="407"/>
+      <c r="C1" s="407"/>
+      <c r="D1" s="407"/>
+      <c r="E1" s="407"/>
+      <c r="F1" s="407"/>
+      <c r="G1" s="407"/>
       <c r="H1" s="57"/>
       <c r="I1" s="138"/>
       <c r="J1" s="138"/>
@@ -9254,15 +9254,15 @@
       <c r="CS1" s="133"/>
     </row>
     <row r="2" spans="1:97" ht="15" customHeight="1">
-      <c r="A2" s="399" t="s">
+      <c r="A2" s="408" t="s">
         <v>193</v>
       </c>
-      <c r="B2" s="399"/>
-      <c r="C2" s="399"/>
-      <c r="D2" s="399"/>
-      <c r="E2" s="399"/>
-      <c r="F2" s="399"/>
-      <c r="G2" s="399"/>
+      <c r="B2" s="408"/>
+      <c r="C2" s="408"/>
+      <c r="D2" s="408"/>
+      <c r="E2" s="408"/>
+      <c r="F2" s="408"/>
+      <c r="G2" s="408"/>
       <c r="H2" s="57"/>
       <c r="I2" s="138"/>
       <c r="J2" s="138"/>
@@ -9355,15 +9355,15 @@
       <c r="CS2" s="133"/>
     </row>
     <row r="3" spans="1:97">
-      <c r="A3" s="400" t="s">
+      <c r="A3" s="409" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="400"/>
-      <c r="C3" s="400"/>
-      <c r="D3" s="400"/>
-      <c r="E3" s="400"/>
-      <c r="F3" s="400"/>
-      <c r="G3" s="400"/>
+      <c r="B3" s="409"/>
+      <c r="C3" s="409"/>
+      <c r="D3" s="409"/>
+      <c r="E3" s="409"/>
+      <c r="F3" s="409"/>
+      <c r="G3" s="409"/>
       <c r="H3" s="57"/>
       <c r="I3" s="138"/>
       <c r="J3" s="138"/>
@@ -12677,12 +12677,12 @@
     </row>
     <row r="35" spans="1:97" ht="13.5" thickBot="1">
       <c r="A35" s="128"/>
-      <c r="B35" s="395" t="s">
+      <c r="B35" s="404" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="395"/>
-      <c r="D35" s="395"/>
-      <c r="E35" s="395"/>
+      <c r="C35" s="404"/>
+      <c r="D35" s="404"/>
+      <c r="E35" s="404"/>
       <c r="F35" s="129"/>
       <c r="G35" s="134"/>
       <c r="H35" s="134"/>
@@ -12794,7 +12794,7 @@
       </c>
       <c r="F36" s="178">
         <f>F33-D119+L121</f>
-        <v>425530</v>
+        <v>426270</v>
       </c>
       <c r="G36" s="134"/>
       <c r="H36" s="134"/>
@@ -13521,10 +13521,10 @@
       <c r="D43" s="203"/>
       <c r="E43" s="172"/>
       <c r="F43" s="129"/>
-      <c r="G43" s="396"/>
-      <c r="H43" s="396"/>
-      <c r="I43" s="396"/>
-      <c r="J43" s="396"/>
+      <c r="G43" s="405"/>
+      <c r="H43" s="405"/>
+      <c r="I43" s="405"/>
+      <c r="J43" s="405"/>
       <c r="K43" s="57"/>
       <c r="L43" s="138"/>
       <c r="M43" s="57"/>
@@ -16826,15 +16826,15 @@
       </c>
       <c r="C72" s="305"/>
       <c r="D72" s="330">
-        <v>362770</v>
+        <v>362030</v>
       </c>
       <c r="E72" s="318" t="s">
         <v>197</v>
       </c>
       <c r="F72" s="129">
-        <v>2500</v>
-      </c>
-      <c r="G72" s="133"/>
+        <v>740</v>
+      </c>
+      <c r="G72" s="209"/>
       <c r="H72" s="170" t="s">
         <v>150</v>
       </c>
@@ -16951,9 +16951,7 @@
       <c r="E73" s="308" t="s">
         <v>204</v>
       </c>
-      <c r="F73" s="129">
-        <v>7050</v>
-      </c>
+      <c r="F73" s="129"/>
       <c r="G73" s="133"/>
       <c r="H73" s="182" t="s">
         <v>102</v>
@@ -21738,14 +21736,14 @@
       <c r="CS118" s="133"/>
     </row>
     <row r="119" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A119" s="393" t="s">
+      <c r="A119" s="402" t="s">
         <v>25</v>
       </c>
-      <c r="B119" s="394"/>
-      <c r="C119" s="397"/>
+      <c r="B119" s="403"/>
+      <c r="C119" s="406"/>
       <c r="D119" s="207">
         <f>SUM(D37:D118)</f>
-        <v>5238000</v>
+        <v>5237260</v>
       </c>
       <c r="E119" s="201"/>
       <c r="F119" s="133"/>
@@ -21947,14 +21945,14 @@
       <c r="CS120" s="133"/>
     </row>
     <row r="121" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A121" s="393" t="s">
+      <c r="A121" s="402" t="s">
         <v>26</v>
       </c>
-      <c r="B121" s="394"/>
-      <c r="C121" s="394"/>
+      <c r="B121" s="403"/>
+      <c r="C121" s="403"/>
       <c r="D121" s="207">
         <f>D119+M121</f>
-        <v>5238000</v>
+        <v>5237260</v>
       </c>
       <c r="E121" s="201"/>
       <c r="F121" s="133"/>
@@ -33185,7 +33183,7 @@
   </sheetPr>
   <dimension ref="A1:R221"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
@@ -33209,28 +33207,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="26.25">
-      <c r="A1" s="403" t="s">
+      <c r="A1" s="412" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="404"/>
-      <c r="C1" s="404"/>
-      <c r="D1" s="404"/>
-      <c r="E1" s="405"/>
+      <c r="B1" s="413"/>
+      <c r="C1" s="413"/>
+      <c r="D1" s="413"/>
+      <c r="E1" s="414"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="401"/>
-      <c r="J1" s="401"/>
-      <c r="K1" s="401"/>
+      <c r="I1" s="410"/>
+      <c r="J1" s="410"/>
+      <c r="K1" s="410"/>
     </row>
     <row r="2" spans="1:18" ht="20.25">
-      <c r="A2" s="412" t="s">
+      <c r="A2" s="421" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="413"/>
-      <c r="C2" s="413"/>
-      <c r="D2" s="413"/>
-      <c r="E2" s="414"/>
+      <c r="B2" s="422"/>
+      <c r="C2" s="422"/>
+      <c r="D2" s="422"/>
+      <c r="E2" s="423"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -33251,13 +33249,13 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="23.25">
-      <c r="A3" s="406" t="s">
+      <c r="A3" s="415" t="s">
         <v>203</v>
       </c>
-      <c r="B3" s="407"/>
-      <c r="C3" s="407"/>
-      <c r="D3" s="407"/>
-      <c r="E3" s="408"/>
+      <c r="B3" s="416"/>
+      <c r="C3" s="416"/>
+      <c r="D3" s="416"/>
+      <c r="E3" s="417"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -33284,13 +33282,13 @@
       <c r="R3" s="7"/>
     </row>
     <row r="4" spans="1:18" ht="23.25">
-      <c r="A4" s="415" t="s">
+      <c r="A4" s="424" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="416"/>
-      <c r="C4" s="416"/>
-      <c r="D4" s="416"/>
-      <c r="E4" s="417"/>
+      <c r="B4" s="425"/>
+      <c r="C4" s="425"/>
+      <c r="D4" s="425"/>
+      <c r="E4" s="426"/>
       <c r="F4" s="5"/>
       <c r="G4" s="41"/>
       <c r="H4" s="41"/>
@@ -33402,7 +33400,7 @@
       <c r="D7" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="426">
+      <c r="E7" s="375">
         <v>1141091</v>
       </c>
       <c r="F7" s="7"/>
@@ -33612,11 +33610,11 @@
       <c r="F13" s="7"/>
       <c r="G13" s="231"/>
       <c r="H13" s="232"/>
-      <c r="I13" s="402" t="s">
+      <c r="I13" s="411" t="s">
         <v>130</v>
       </c>
-      <c r="J13" s="402"/>
-      <c r="K13" s="402"/>
+      <c r="J13" s="411"/>
+      <c r="K13" s="411"/>
       <c r="L13" s="351">
         <f>SUM(L3:L12)</f>
         <v>219650</v>
@@ -33641,11 +33639,11 @@
       <c r="F14" s="7"/>
       <c r="G14" s="287"/>
       <c r="H14" s="233"/>
-      <c r="I14" s="418" t="s">
+      <c r="I14" s="427" t="s">
         <v>141</v>
       </c>
-      <c r="J14" s="418"/>
-      <c r="K14" s="418"/>
+      <c r="J14" s="427"/>
+      <c r="K14" s="427"/>
       <c r="L14" s="31">
         <v>54000</v>
       </c>
@@ -33657,10 +33655,10 @@
       <c r="R14" s="7"/>
     </row>
     <row r="15" spans="1:18" ht="21.75">
-      <c r="A15" s="430" t="s">
+      <c r="A15" s="379" t="s">
         <v>207</v>
       </c>
-      <c r="B15" s="431">
+      <c r="B15" s="380">
         <v>200000</v>
       </c>
       <c r="C15" s="39"/>
@@ -33673,11 +33671,11 @@
       <c r="F15" s="7"/>
       <c r="G15" s="288"/>
       <c r="H15" s="233"/>
-      <c r="I15" s="402" t="s">
+      <c r="I15" s="411" t="s">
         <v>142</v>
       </c>
-      <c r="J15" s="402"/>
-      <c r="K15" s="402"/>
+      <c r="J15" s="411"/>
+      <c r="K15" s="411"/>
       <c r="L15" s="351">
         <f>L13-L14</f>
         <v>165650</v>
@@ -33750,13 +33748,13 @@
       <c r="R18" s="7"/>
     </row>
     <row r="19" spans="1:18" ht="23.25" thickBot="1">
-      <c r="A19" s="409" t="s">
+      <c r="A19" s="418" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="410"/>
-      <c r="C19" s="410"/>
-      <c r="D19" s="410"/>
-      <c r="E19" s="411"/>
+      <c r="B19" s="419"/>
+      <c r="C19" s="419"/>
+      <c r="D19" s="419"/>
+      <c r="E19" s="420"/>
       <c r="F19" s="5"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
@@ -34069,17 +34067,17 @@
       <c r="R32" s="7"/>
     </row>
     <row r="33" spans="1:18" ht="22.5" thickBot="1">
-      <c r="A33" s="427" t="s">
+      <c r="A33" s="376" t="s">
         <v>180</v>
       </c>
-      <c r="B33" s="428">
+      <c r="B33" s="377">
         <v>15000</v>
       </c>
       <c r="C33" s="293"/>
-      <c r="D33" s="429" t="s">
+      <c r="D33" s="378" t="s">
         <v>100</v>
       </c>
-      <c r="E33" s="428">
+      <c r="E33" s="377">
         <v>80000</v>
       </c>
       <c r="I33" s="7"/>
@@ -36877,8 +36875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -36894,13 +36892,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24" thickBot="1">
-      <c r="A1" s="419" t="s">
+      <c r="A1" s="428" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="420"/>
+      <c r="B1" s="429"/>
       <c r="C1" s="284">
         <f>C80+H6</f>
-        <v>128615</v>
+        <v>129615</v>
       </c>
       <c r="D1" s="290"/>
       <c r="E1" s="289"/>
@@ -36982,7 +36980,7 @@
         <v>188</v>
       </c>
       <c r="H5" s="365">
-        <v>16000</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18">
@@ -37007,7 +37005,7 @@
       </c>
       <c r="H6" s="366">
         <f>SUM(H3:H5)</f>
-        <v>108690</v>
+        <v>109690</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1">
@@ -37243,17 +37241,17 @@
       <c r="F24" s="224"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="423" t="s">
+      <c r="A25" s="372" t="s">
         <v>204</v>
       </c>
-      <c r="B25" s="424" t="s">
+      <c r="B25" s="373" t="s">
         <v>205</v>
       </c>
       <c r="C25" s="319">
         <v>2925</v>
       </c>
       <c r="D25" s="320"/>
-      <c r="E25" s="425" t="s">
+      <c r="E25" s="374" t="s">
         <v>204</v>
       </c>
       <c r="F25" s="224"/>
@@ -37721,10 +37719,10 @@
       <c r="F79" s="348"/>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="421" t="s">
+      <c r="A80" s="430" t="s">
         <v>84</v>
       </c>
-      <c r="B80" s="422"/>
+      <c r="B80" s="431"/>
       <c r="C80" s="319">
         <f>SUM(C4:C79)</f>
         <v>19925</v>
